--- a/logical-model/ig/CodeSystem-siph-typecomposant-oncofair-codesystem.xlsx
+++ b/logical-model/ig/CodeSystem-siph-typecomposant-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:21:16+00:00</t>
+    <t>2024-06-24T15:04:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
